--- a/docs/matrice_tracabilite.xlsx
+++ b/docs/matrice_tracabilite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testeur logiciel\qa-portfolio-automationexercise\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C91D476-0A7E-41E1-82C9-9DA007B64F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF603CA6-CA65-4209-B4F4-7873BEFA1A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,9 +258,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>CT-LOGIN-002</t>
-  </si>
-  <si>
     <t>CT-SIGNUP-002</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t>CT-PAYMENT-001, CT-CHECKOUT-002</t>
+  </si>
+  <si>
+    <t>CT-AUTH-002</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -784,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -801,13 +801,13 @@
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -821,13 +821,13 @@
         <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,13 +841,13 @@
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -861,13 +861,13 @@
         <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,13 +881,13 @@
         <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -901,13 +901,13 @@
         <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -921,19 +921,19 @@
         <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -947,13 +947,13 @@
         <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -967,13 +967,13 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -987,13 +987,13 @@
         <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1007,13 +1007,13 @@
         <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,13 +1027,13 @@
         <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1041,19 +1041,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1067,13 +1067,13 @@
         <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1087,13 +1087,13 @@
         <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,13 +1107,13 @@
         <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,13 +1127,13 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1147,13 +1147,13 @@
         <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1167,13 +1167,13 @@
         <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1187,13 +1187,13 @@
         <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1207,13 +1207,13 @@
         <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1227,13 +1227,13 @@
         <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,13 +1247,13 @@
         <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1267,13 +1267,13 @@
         <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1287,13 +1287,13 @@
         <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1307,13 +1307,13 @@
         <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1327,13 +1327,13 @@
         <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,13 +1347,13 @@
         <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1367,13 +1367,13 @@
         <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1387,13 +1387,13 @@
         <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1407,13 +1407,13 @@
         <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1427,13 +1427,13 @@
         <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1447,13 +1447,13 @@
         <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1491,19 +1491,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
-        <v>108</v>
-      </c>
       <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>118</v>
-      </c>
-      <c r="E1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1511,16 +1511,16 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1528,16 +1528,16 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
         <v>110</v>
-      </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1545,18 +1545,18 @@
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
